--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumantra.upadhyay\Videos\DevOps_insiders\Self_notes_Git\Notes_Devops_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0C5298-9ED4-498D-98C9-46582B63D293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD57EADC-0CB5-431C-8C95-3526DE6DB0D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Interview Date</t>
   </si>
@@ -51,12 +51,6 @@
     <t>K8s knowledge is not as per experience</t>
   </si>
   <si>
-    <t>K8s knowledge / Bash Scripting</t>
-  </si>
-  <si>
-    <t>K8s Knowledge required</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -82,15 +76,31 @@
   </si>
   <si>
     <t>11:30 To 12:00</t>
+  </si>
+  <si>
+    <t>Reason for the rejection in 2nd round</t>
+  </si>
+  <si>
+    <t>K8s knowledge / CICD /Bash Scripting required</t>
+  </si>
+  <si>
+    <t>K8s Knowledge /CICD required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -168,12 +178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -196,6 +200,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +531,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,137 +540,137 @@
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>3</v>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>45820</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>45834</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>45841</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>45842</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumantra.upadhyay\Videos\DevOps_insiders\Self_notes_Git\Notes_Devops_self\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD57EADC-0CB5-431C-8C95-3526DE6DB0D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796E449-6F27-4121-83C9-D2841931D1DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Interview Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>K8s Knowledge /CICD required</t>
+  </si>
+  <si>
+    <t>CICD Yaml /Kubernates required</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,12 +187,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,10 +199,10 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,7 +528,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,23 +542,23 @@
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -593,84 +590,88 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>45820</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>45834</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>45841</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>45842</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796E449-6F27-4121-83C9-D2841931D1DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CD2A0-9E43-40A4-8082-FCD63992AF97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Interview Date</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>CICD Yaml /Kubernates required</t>
+  </si>
+  <si>
+    <t>16:00 To 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EY </t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,6 +209,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD5A24-939F-4BE2-A514-E645ADBCD2DF}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +685,23 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>45847</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CD2A0-9E43-40A4-8082-FCD63992AF97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83502D0C-B4CF-4B5D-8156-ED77B6FB028F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Interview Date</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t xml:space="preserve">EY </t>
+  </si>
+  <si>
+    <t>CICD Required</t>
+  </si>
+  <si>
+    <t>Mirafra Technologies</t>
+  </si>
+  <si>
+    <t>12:00 to 12:30</t>
+  </si>
+  <si>
+    <t>16:30 To 15:00</t>
+  </si>
+  <si>
+    <t>itcinfotech (Azure Kubernates L3)</t>
   </si>
 </sst>
 </file>
@@ -116,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,7 +152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,25 +217,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,17 +561,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD5A24-939F-4BE2-A514-E645ADBCD2DF}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -558,19 +582,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -602,105 +626,143 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>45820</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>45834</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>45841</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>45842</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>45847</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>45850</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>45852</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumantra.upadhyay\Videos\DevOps_insiders\Self_notes_Git\Notes_Devops_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83502D0C-B4CF-4B5D-8156-ED77B6FB028F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37630A6-0914-42E9-9309-B262981EB745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Interview Date</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>itcinfotech (Azure Kubernates L3)</t>
+  </si>
+  <si>
+    <t>Detailed basic of terraform/ GIT/ Kubernates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Azure expert for the opration </t>
   </si>
 </sst>
 </file>
@@ -131,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,12 +153,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,28 +217,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,15 +567,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD5A24-939F-4BE2-A514-E645ADBCD2DF}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -582,19 +588,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -626,143 +632,1242 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>45820</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>45834</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>45841</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>45842</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>45847</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>45850</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>45852</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="5">
+        <v>45853</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="13"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="13"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="13"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="13"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="13"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="13"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="13"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="13"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="13"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="13"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="13"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="13"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="13"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="13"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="13"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="13"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="13"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="13"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="13"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="13"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="13"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="13"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="13"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="13"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="13"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="13"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="13"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="13"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="13"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="13"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="13"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="13"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="13"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="13"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="13"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="13"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="13"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="13"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="13"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="13"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="13"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="13"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="13"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="13"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="13"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="13"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="13"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="13"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="13"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="13"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="13"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="13"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="13"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="13"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="13"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="13"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="13"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="13"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="13"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="13"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="13"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="13"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="13"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="13"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="13"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="13"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="13"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="13"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="13"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="13"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="13"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="13"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="13"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="13"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="13"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="13"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="13"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="13"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="13"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="13"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="13"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="13"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="13"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="13"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="13"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="13"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="13"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="13"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="13"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="13"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="13"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="13"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="13"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="13"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="13"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="13"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="13"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="13"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="13"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="13"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="13"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="13"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="13"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="13"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="13"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="13"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="13"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="13"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="13"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="13"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="13"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="13"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="13"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="13"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="13"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="13"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="13"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="13"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="13"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="13"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="13"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="13"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="13"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="13"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="13"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="13"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="13"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="13"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="13"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="13"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="13"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="13"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="13"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="13"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="13"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="13"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="13"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="13"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="13"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="13"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="13"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="13"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="13"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="13"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="13"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="13"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="13"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="13"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="13"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="13"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="13"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumantra.upadhyay\Videos\DevOps_insiders\Self_notes_Git\Notes_Devops_self\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37630A6-0914-42E9-9309-B262981EB745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589F88BA-C052-4578-9F0A-1F0D6E3D8331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Interview Date</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Required Azure expert for the opration </t>
+  </si>
+  <si>
+    <t>11:00 To 11:30</t>
+  </si>
+  <si>
+    <t>Mphasis/intelliswift.com</t>
   </si>
 </sst>
 </file>
@@ -229,12 +235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +245,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,12 +576,12 @@
   <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -588,19 +594,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -779,1095 +785,1101 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="10">
+        <v>45855</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="11"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="11"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="11"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="11"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="11"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="11"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="11"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="11"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="11"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="11"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="11"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="11"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="11"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="11"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="11"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="11"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="11"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="11"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="11"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="11"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="11"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="11"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="11"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="11"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="11"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="11"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="11"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="11"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="11"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="11"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="11"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="11"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="11"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="11"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="11"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="11"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="11"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="11"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="11"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="11"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="11"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="11"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+      <c r="A76" s="11"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="11"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="11"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="11"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
+      <c r="A80" s="11"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="11"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+      <c r="A82" s="11"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
+      <c r="A83" s="11"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
+      <c r="A84" s="11"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
+      <c r="A85" s="11"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+      <c r="A86" s="11"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="A87" s="11"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="11"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+      <c r="A89" s="11"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="11"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+      <c r="A91" s="11"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+      <c r="A92" s="11"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+      <c r="A93" s="11"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
+      <c r="A94" s="11"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
+      <c r="A95" s="11"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
+      <c r="A96" s="11"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
+      <c r="A97" s="11"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
+      <c r="A98" s="11"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
+      <c r="A99" s="11"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
+      <c r="A100" s="11"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
+      <c r="A101" s="11"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
+      <c r="A102" s="11"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
+      <c r="A103" s="11"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
+      <c r="A104" s="11"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
+      <c r="A105" s="11"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
+      <c r="A106" s="11"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
+      <c r="A107" s="11"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
+      <c r="A108" s="11"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
+      <c r="A109" s="11"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
+      <c r="A110" s="11"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
+      <c r="A111" s="11"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
+      <c r="A112" s="11"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
+      <c r="A113" s="11"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
+      <c r="A114" s="11"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
+      <c r="A115" s="11"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
+      <c r="A116" s="11"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
+      <c r="A117" s="11"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
+      <c r="A118" s="11"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
+      <c r="A119" s="11"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
+      <c r="A120" s="11"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
+      <c r="A121" s="11"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
+      <c r="A122" s="11"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
+      <c r="A123" s="11"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
+      <c r="A124" s="11"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
+      <c r="A125" s="11"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
+      <c r="A126" s="11"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
+      <c r="A127" s="11"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
+      <c r="A128" s="11"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
+      <c r="A129" s="11"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
+      <c r="A130" s="11"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
+      <c r="A131" s="11"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
+      <c r="A132" s="11"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
+      <c r="A133" s="11"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
+      <c r="A134" s="11"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
+      <c r="A135" s="11"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
+      <c r="A136" s="11"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
+      <c r="A137" s="11"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
+      <c r="A138" s="11"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
+      <c r="A139" s="11"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
+      <c r="A140" s="11"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
+      <c r="A141" s="11"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
+      <c r="A142" s="11"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
+      <c r="A143" s="11"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
+      <c r="A144" s="11"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
+      <c r="A145" s="11"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
+      <c r="A146" s="11"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
+      <c r="A147" s="11"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
+      <c r="A148" s="11"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="13"/>
+      <c r="A149" s="11"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
+      <c r="A150" s="11"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
+      <c r="A151" s="11"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
+      <c r="A152" s="11"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
+      <c r="A153" s="11"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
+      <c r="A154" s="11"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
+      <c r="A155" s="11"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="13"/>
+      <c r="A156" s="11"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="13"/>
+      <c r="A157" s="11"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="13"/>
+      <c r="A158" s="11"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
+      <c r="A159" s="11"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
+      <c r="A160" s="11"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
+      <c r="A161" s="11"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="13"/>
+      <c r="A162" s="11"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
+      <c r="A163" s="11"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
+      <c r="A164" s="11"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
+      <c r="A165" s="11"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
+      <c r="A166" s="11"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
+      <c r="A167" s="11"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
+      <c r="A168" s="11"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
+      <c r="A169" s="11"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
+      <c r="A170" s="11"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
+      <c r="A171" s="11"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
+      <c r="A172" s="11"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
+      <c r="A173" s="11"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
+      <c r="A174" s="11"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
+      <c r="A175" s="11"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
+      <c r="A176" s="11"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
+      <c r="A177" s="11"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
+      <c r="A178" s="11"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
+      <c r="A179" s="11"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
+      <c r="A180" s="11"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
+      <c r="A181" s="11"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
+      <c r="A182" s="11"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
+      <c r="A183" s="11"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
+      <c r="A184" s="11"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
+      <c r="A185" s="11"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
+      <c r="A186" s="11"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
+      <c r="A187" s="11"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
+      <c r="A188" s="11"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
+      <c r="A189" s="11"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
+      <c r="A190" s="11"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
+      <c r="A191" s="11"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
+      <c r="A192" s="11"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
+      <c r="A193" s="11"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
+      <c r="A194" s="11"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="13"/>
+      <c r="A195" s="11"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
+      <c r="A196" s="11"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
+      <c r="A197" s="11"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
+      <c r="A198" s="11"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
+      <c r="A199" s="11"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
+      <c r="A200" s="11"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
+      <c r="A201" s="11"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
+      <c r="A202" s="11"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
+      <c r="A203" s="11"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
+      <c r="A204" s="11"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="13"/>
+      <c r="A205" s="11"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="13"/>
+      <c r="A206" s="11"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
+      <c r="A207" s="11"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
+      <c r="A208" s="11"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="13"/>
+      <c r="A209" s="11"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
+      <c r="A210" s="11"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="13"/>
+      <c r="A211" s="11"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="13"/>
+      <c r="A212" s="11"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="13"/>
+      <c r="A213" s="11"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="13"/>
+      <c r="A214" s="11"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="13"/>
+      <c r="A215" s="11"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
+      <c r="A216" s="11"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="13"/>
+      <c r="A217" s="11"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
+      <c r="A218" s="11"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="13"/>
+      <c r="A219" s="11"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="13"/>
+      <c r="A220" s="11"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="13"/>
+      <c r="A221" s="11"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
+      <c r="A222" s="11"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
+      <c r="A223" s="11"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="13"/>
+      <c r="A224" s="11"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="13"/>
+      <c r="A225" s="11"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="13"/>
+      <c r="A226" s="11"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="13"/>
+      <c r="A227" s="11"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="13"/>
+      <c r="A228" s="11"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="13"/>
+      <c r="A229" s="11"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="13"/>
+      <c r="A230" s="11"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
+      <c r="A231" s="11"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
+      <c r="A232" s="11"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="13"/>
+      <c r="A233" s="11"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="13"/>
+      <c r="A234" s="11"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="13"/>
+      <c r="A235" s="11"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="13"/>
+      <c r="A236" s="11"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="13"/>
+      <c r="A237" s="11"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="13"/>
+      <c r="A238" s="11"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="13"/>
+      <c r="A239" s="11"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
+      <c r="A240" s="11"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="13"/>
+      <c r="A241" s="11"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="13"/>
+      <c r="A242" s="11"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="13"/>
+      <c r="A243" s="11"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="13"/>
+      <c r="A244" s="11"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="13"/>
+      <c r="A245" s="11"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="13"/>
+      <c r="A246" s="11"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="13"/>
+      <c r="A247" s="11"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="13"/>
+      <c r="A248" s="11"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="13"/>
+      <c r="A249" s="11"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="13"/>
+      <c r="A250" s="11"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="13"/>
+      <c r="A251" s="11"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="13"/>
+      <c r="A252" s="11"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="13"/>
+      <c r="A253" s="11"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="13"/>
+      <c r="A254" s="11"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="13"/>
+      <c r="A255" s="11"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="13"/>
+      <c r="A256" s="11"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
+      <c r="A257" s="11"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="13"/>
+      <c r="A258" s="11"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="13"/>
+      <c r="A259" s="11"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="13"/>
+      <c r="A260" s="11"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="13"/>
+      <c r="A261" s="11"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="13"/>
+      <c r="A262" s="11"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="13"/>
+      <c r="A263" s="11"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="13"/>
+      <c r="A264" s="11"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
+      <c r="A265" s="11"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="13"/>
+      <c r="A266" s="11"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
+      <c r="A267" s="11"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="13"/>
+      <c r="A268" s="11"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="13"/>
+      <c r="A269" s="11"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="13"/>
+      <c r="A270" s="11"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="13"/>
+      <c r="A271" s="11"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="13"/>
+      <c r="A272" s="11"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
+      <c r="A273" s="11"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="13"/>
+      <c r="A274" s="11"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="13"/>
+      <c r="A275" s="11"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="13"/>
+      <c r="A276" s="11"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="13"/>
+      <c r="A277" s="11"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="13"/>
+      <c r="A278" s="11"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="13"/>
+      <c r="A279" s="11"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="13"/>
+      <c r="A280" s="11"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="13"/>
+      <c r="A281" s="11"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="13"/>
+      <c r="A282" s="11"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="13"/>
+      <c r="A283" s="11"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="13"/>
+      <c r="A284" s="11"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="13"/>
+      <c r="A285" s="11"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="13"/>
+      <c r="A286" s="11"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="13"/>
+      <c r="A287" s="11"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="13"/>
+      <c r="A288" s="11"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="13"/>
+      <c r="A289" s="11"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="13"/>
+      <c r="A290" s="11"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="13"/>
+      <c r="A291" s="11"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="13"/>
+      <c r="A292" s="11"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="13"/>
+      <c r="A293" s="11"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="13"/>
+      <c r="A294" s="11"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
+      <c r="A295" s="11"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="13"/>
+      <c r="A296" s="11"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="13"/>
+      <c r="A297" s="11"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="13"/>
+      <c r="A298" s="11"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="13"/>
+      <c r="A299" s="11"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="13"/>
+      <c r="A300" s="11"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="13"/>
+      <c r="A301" s="11"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="13"/>
+      <c r="A302" s="11"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="13"/>
+      <c r="A303" s="11"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="13"/>
+      <c r="A304" s="11"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="13"/>
+      <c r="A305" s="11"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="13"/>
+      <c r="A306" s="11"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="13"/>
+      <c r="A307" s="11"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="13"/>
+      <c r="A308" s="11"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="13"/>
+      <c r="A309" s="11"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="13"/>
+      <c r="A310" s="11"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="13"/>
+      <c r="A311" s="11"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="13"/>
+      <c r="A312" s="11"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="13"/>
+      <c r="A313" s="11"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="13"/>
+      <c r="A314" s="11"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="13"/>
+      <c r="A315" s="11"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="13"/>
+      <c r="A316" s="11"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="13"/>
+      <c r="A317" s="11"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="13"/>
+      <c r="A318" s="11"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="13"/>
+      <c r="A319" s="11"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="13"/>
+      <c r="A320" s="11"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="13"/>
+      <c r="A321" s="11"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="13"/>
+      <c r="A322" s="11"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="13"/>
+      <c r="A323" s="11"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="13"/>
+      <c r="A324" s="11"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="13"/>
+      <c r="A325" s="11"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="13"/>
+      <c r="A326" s="11"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="13"/>
+      <c r="A327" s="11"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="13"/>
+      <c r="A328" s="11"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="13"/>
+      <c r="A329" s="11"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="13"/>
+      <c r="A330" s="11"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="13"/>
+      <c r="A331" s="11"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="13"/>
+      <c r="A332" s="11"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="13"/>
+      <c r="A333" s="11"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="13"/>
+      <c r="A334" s="11"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="13"/>
+      <c r="A335" s="11"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="13"/>
+      <c r="A336" s="11"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="13"/>
+      <c r="A337" s="11"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="13"/>
+      <c r="A338" s="11"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="13"/>
+      <c r="A339" s="11"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="13"/>
+      <c r="A340" s="11"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="13"/>
+      <c r="A341" s="11"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="13"/>
+      <c r="A342" s="11"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="13"/>
+      <c r="A343" s="11"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="13"/>
+      <c r="A344" s="11"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="13"/>
+      <c r="A345" s="11"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="13"/>
+      <c r="A346" s="11"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="13"/>
+      <c r="A347" s="11"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="13"/>
+      <c r="A348" s="11"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="13"/>
+      <c r="A349" s="11"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="13"/>
+      <c r="A350" s="11"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="13"/>
+      <c r="A351" s="11"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="13"/>
+      <c r="A352" s="11"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="13"/>
+      <c r="A353" s="11"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="13"/>
+      <c r="A354" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589F88BA-C052-4578-9F0A-1F0D6E3D8331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4A34B9-EFC2-40BD-B2C4-399397F706C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Interview Date</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">Required Azure expert for the opration </t>
-  </si>
-  <si>
-    <t>11:00 To 11:30</t>
-  </si>
-  <si>
-    <t>Mphasis/intelliswift.com</t>
   </si>
 </sst>
 </file>
@@ -576,7 +570,7 @@
   <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,15 +779,9 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>45855</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
